--- a/src/assets/fxsj_mb/fxtb_f053_glryxx.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f053_glryxx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>工号</t>
+    <t>身份证号(工号)</t>
   </si>
   <si>
     <t>出生年月</t>
@@ -55,7 +55,7 @@
     <t>工作职务</t>
   </si>
   <si>
-    <t>奉贤分校</t>
+    <t>杨浦分校</t>
   </si>
   <si>
     <t>张三</t>
@@ -128,7 +128,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,21 +144,100 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +251,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -179,37 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,68 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -310,49 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,109 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +509,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,55 +591,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,159 +630,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,187 +1103,186 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.83333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.58333333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="20.1666666666667" customWidth="1"/>
-    <col min="9" max="10" width="16.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="8.91666666666667" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="14.8333333333333" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="16.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="10.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:13">
-      <c r="A2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="1">
-        <v>31009</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31030</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
-      <c r="A3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="1">
-        <v>31009</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31030</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2222</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:13">
-      <c r="A4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="1">
-        <v>31009</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31030</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>3333</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/assets/fxsj_mb/fxtb_f053_glryxx.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f053_glryxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>年度</t>
   </si>
@@ -67,7 +67,7 @@
     <t>男</t>
   </si>
   <si>
-    <t>A教学管理与服务人员</t>
+    <t>专职</t>
   </si>
   <si>
     <t>学历教育部</t>
@@ -94,7 +94,7 @@
     <t>女</t>
   </si>
   <si>
-    <t>B行政管理人员</t>
+    <t>兼职</t>
   </si>
   <si>
     <t>校长室</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>1973-08-10</t>
-  </si>
-  <si>
-    <t>C技术人员</t>
   </si>
   <si>
     <t>信息技术服务中心</t>
@@ -124,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,7 +149,121 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +277,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -173,123 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,23 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,23 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,15 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -610,6 +568,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,139 +627,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,14 +773,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,7 +1098,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
@@ -1114,7 +1108,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="8.22222222222222" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="16.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
@@ -1123,75 +1117,75 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2020</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>31030</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1111</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -1205,28 +1199,28 @@
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2020</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>31030</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2222</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1246,32 +1240,32 @@
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:13">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2020</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>31030</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>3333</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>19</v>
